--- a/report.xlsx
+++ b/report.xlsx
@@ -220,7 +220,7 @@
       <c r="B2" s="2" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Simple Report Example</t>
+            <t xml:space="preserve">Candidate Info</t>
           </r>
         </is>
       </c>
